--- a/NanaimoChamber.xlsx
+++ b/NanaimoChamber.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19500" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="NanaimoChamberV1" sheetId="1" r:id="rId1"/>
@@ -10632,7 +10632,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -10685,7 +10684,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1910</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>252</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5636</v>
       </c>
@@ -10781,7 +10780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2045</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1581</v>
       </c>
@@ -10845,7 +10844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>888</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5671</v>
       </c>
@@ -10909,7 +10908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5792</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1525</v>
       </c>
@@ -10973,7 +10972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11005,7 +11004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11069,7 +11068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2190</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2201</v>
       </c>
@@ -11133,7 +11132,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1030</v>
       </c>
@@ -11165,7 +11164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1497</v>
       </c>
@@ -11197,7 +11196,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1107</v>
       </c>
@@ -11229,7 +11228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3413</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3276</v>
       </c>
@@ -11325,7 +11324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>686</v>
       </c>
@@ -11357,7 +11356,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>38</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3301</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1518</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1774</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3409</v>
       </c>
@@ -11517,7 +11516,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5822</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3446</v>
       </c>
@@ -11581,7 +11580,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3460</v>
       </c>
@@ -11613,7 +11612,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5597</v>
       </c>
@@ -11645,7 +11644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4508</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5758</v>
       </c>
@@ -11709,7 +11708,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5680</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5650</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1189</v>
       </c>
@@ -11805,7 +11804,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5655</v>
       </c>
@@ -11837,7 +11836,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5831</v>
       </c>
@@ -11869,7 +11868,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4507</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1150</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1339</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1533</v>
       </c>
@@ -11997,7 +11996,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -12029,7 +12028,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>59</v>
       </c>
@@ -12061,7 +12060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>60</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1135</v>
       </c>
@@ -12125,7 +12124,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>69</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1361</v>
       </c>
@@ -12189,7 +12188,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>70</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>72</v>
       </c>
@@ -12253,7 +12252,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3372</v>
       </c>
@@ -12285,7 +12284,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1537</v>
       </c>
@@ -12317,7 +12316,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>857</v>
       </c>
@@ -12349,7 +12348,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3305</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>74</v>
       </c>
@@ -12413,7 +12412,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5825</v>
       </c>
@@ -12445,7 +12444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>85</v>
       </c>
@@ -12477,7 +12476,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>86</v>
       </c>
@@ -12509,7 +12508,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2098</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>88</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>751</v>
       </c>
@@ -12605,7 +12604,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3431</v>
       </c>
@@ -12637,7 +12636,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>89</v>
       </c>
@@ -12669,7 +12668,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1622</v>
       </c>
@@ -12701,7 +12700,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2065</v>
       </c>
@@ -12733,7 +12732,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2220</v>
       </c>
@@ -12765,7 +12764,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2251</v>
       </c>
@@ -12797,7 +12796,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2056</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>97</v>
       </c>
@@ -12861,7 +12860,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3290</v>
       </c>
@@ -12893,7 +12892,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>99</v>
       </c>
@@ -12925,7 +12924,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2014</v>
       </c>
@@ -12957,7 +12956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3324</v>
       </c>
@@ -12989,7 +12988,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5851</v>
       </c>
@@ -13021,7 +13020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5590</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5642</v>
       </c>
@@ -13085,7 +13084,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5626</v>
       </c>
@@ -13117,7 +13116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5618</v>
       </c>
@@ -13149,7 +13148,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5657</v>
       </c>
@@ -13181,7 +13180,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5651</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5579</v>
       </c>
@@ -13245,7 +13244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>957</v>
       </c>
@@ -13277,7 +13276,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1250</v>
       </c>
@@ -13309,7 +13308,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>107</v>
       </c>
@@ -13341,7 +13340,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>108</v>
       </c>
@@ -13373,7 +13372,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>110</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1522</v>
       </c>
@@ -13437,7 +13436,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1023</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3263</v>
       </c>
@@ -13501,7 +13500,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>117</v>
       </c>
@@ -13533,7 +13532,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2231</v>
       </c>
@@ -13565,7 +13564,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1934</v>
       </c>
@@ -13597,7 +13596,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>292</v>
       </c>
@@ -13629,7 +13628,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1215</v>
       </c>
@@ -13661,7 +13660,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3320</v>
       </c>
@@ -13693,7 +13692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>132</v>
       </c>
@@ -13725,7 +13724,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1900</v>
       </c>
@@ -13757,7 +13756,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1829</v>
       </c>
@@ -13789,7 +13788,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>137</v>
       </c>
@@ -13821,7 +13820,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>138</v>
       </c>
@@ -13853,7 +13852,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>139</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>140</v>
       </c>
@@ -13917,7 +13916,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>142</v>
       </c>
@@ -13949,7 +13948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>147</v>
       </c>
@@ -13981,7 +13980,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>150</v>
       </c>
@@ -14013,7 +14012,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>153</v>
       </c>
@@ -14045,7 +14044,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1514</v>
       </c>
@@ -14077,7 +14076,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3464</v>
       </c>
@@ -14109,7 +14108,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>157</v>
       </c>
@@ -14141,7 +14140,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>158</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>160</v>
       </c>
@@ -14205,7 +14204,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>168</v>
       </c>
@@ -14237,7 +14236,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>169</v>
       </c>
@@ -14269,7 +14268,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>167</v>
       </c>
@@ -14301,7 +14300,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>166</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>165</v>
       </c>
@@ -14365,7 +14364,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2044</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1585</v>
       </c>
@@ -14429,7 +14428,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3384</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1423</v>
       </c>
@@ -14493,7 +14492,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1977</v>
       </c>
@@ -14525,7 +14524,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>174</v>
       </c>
@@ -14557,7 +14556,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1539</v>
       </c>
@@ -14621,7 +14620,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>177</v>
       </c>
@@ -14685,7 +14684,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5820</v>
       </c>
@@ -14717,7 +14716,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>184</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>999</v>
       </c>
@@ -14781,7 +14780,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>186</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>191</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3269</v>
       </c>
@@ -14877,7 +14876,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1074</v>
       </c>
@@ -14909,7 +14908,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>479</v>
       </c>
@@ -14941,7 +14940,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4559</v>
       </c>
@@ -14973,7 +14972,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3325</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3455</v>
       </c>
@@ -15037,7 +15036,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5603</v>
       </c>
@@ -15069,7 +15068,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2013</v>
       </c>
@@ -15101,7 +15100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5630</v>
       </c>
@@ -15133,7 +15132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3447</v>
       </c>
@@ -15165,7 +15164,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5806</v>
       </c>
@@ -15197,7 +15196,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3458</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5635</v>
       </c>
@@ -15261,7 +15260,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3368</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5654</v>
       </c>
@@ -15325,7 +15324,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3370</v>
       </c>
@@ -15357,7 +15356,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5600</v>
       </c>
@@ -15389,7 +15388,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3355</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3444</v>
       </c>
@@ -15453,7 +15452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5673</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4554</v>
       </c>
@@ -15517,7 +15516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5779</v>
       </c>
@@ -15549,7 +15548,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5647</v>
       </c>
@@ -15581,7 +15580,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3382</v>
       </c>
@@ -15613,7 +15612,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5585</v>
       </c>
@@ -15645,7 +15644,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5664</v>
       </c>
@@ -15677,7 +15676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5576</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5826</v>
       </c>
@@ -15741,7 +15740,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4525</v>
       </c>
@@ -15773,7 +15772,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5871</v>
       </c>
@@ -15805,7 +15804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>199</v>
       </c>
@@ -15837,7 +15836,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>200</v>
       </c>
@@ -15869,7 +15868,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2172</v>
       </c>
@@ -15901,7 +15900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>201</v>
       </c>
@@ -15933,7 +15932,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>204</v>
       </c>
@@ -15965,7 +15964,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>205</v>
       </c>
@@ -15997,7 +15996,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1009</v>
       </c>
@@ -16029,7 +16028,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>737</v>
       </c>
@@ -16061,7 +16060,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2113</v>
       </c>
@@ -16093,7 +16092,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>210</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1574</v>
       </c>
@@ -16157,7 +16156,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>211</v>
       </c>
@@ -16189,7 +16188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1960</v>
       </c>
@@ -16221,7 +16220,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>451</v>
       </c>
@@ -16253,7 +16252,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2036</v>
       </c>
@@ -16285,7 +16284,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2247</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2072</v>
       </c>
@@ -16349,7 +16348,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4536</v>
       </c>
@@ -16381,7 +16380,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5793</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5596</v>
       </c>
@@ -16445,7 +16444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>232</v>
       </c>
@@ -16477,7 +16476,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1520</v>
       </c>
@@ -16509,7 +16508,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1851</v>
       </c>
@@ -16541,7 +16540,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>78</v>
       </c>
@@ -16573,7 +16572,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>242</v>
       </c>
@@ -16605,7 +16604,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>248</v>
       </c>
@@ -16637,7 +16636,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2186</v>
       </c>
@@ -16669,7 +16668,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5824</v>
       </c>
@@ -16701,7 +16700,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3393</v>
       </c>
@@ -16733,7 +16732,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3322</v>
       </c>
@@ -16765,7 +16764,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5663</v>
       </c>
@@ -16797,7 +16796,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5827</v>
       </c>
@@ -16829,7 +16828,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4551</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5592</v>
       </c>
@@ -16893,7 +16892,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2197</v>
       </c>
@@ -16925,7 +16924,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1125</v>
       </c>
@@ -16957,7 +16956,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>262</v>
       </c>
@@ -16989,7 +16988,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3318</v>
       </c>
@@ -17021,7 +17020,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>268</v>
       </c>
@@ -17053,7 +17052,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2023</v>
       </c>
@@ -17085,7 +17084,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3328</v>
       </c>
@@ -17117,7 +17116,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>766</v>
       </c>
@@ -17149,7 +17148,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3479</v>
       </c>
@@ -17181,7 +17180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5615</v>
       </c>
@@ -17213,7 +17212,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4513</v>
       </c>
@@ -17245,7 +17244,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4499</v>
       </c>
@@ -17277,7 +17276,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1603</v>
       </c>
@@ -17309,7 +17308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>969</v>
       </c>
@@ -17341,7 +17340,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2161</v>
       </c>
@@ -17373,7 +17372,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1981</v>
       </c>
@@ -17405,7 +17404,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>309</v>
       </c>
@@ -17437,7 +17436,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>290</v>
       </c>
@@ -17469,7 +17468,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1041</v>
       </c>
@@ -17501,7 +17500,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>698</v>
       </c>
@@ -17533,7 +17532,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>294</v>
       </c>
@@ -17565,7 +17564,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4526</v>
       </c>
@@ -17597,7 +17596,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5669</v>
       </c>
@@ -17629,7 +17628,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1182</v>
       </c>
@@ -17661,7 +17660,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5660</v>
       </c>
@@ -17693,7 +17692,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4516</v>
       </c>
@@ -17725,7 +17724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>296</v>
       </c>
@@ -17757,7 +17756,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>301</v>
       </c>
@@ -17789,7 +17788,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>302</v>
       </c>
@@ -17821,7 +17820,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>943</v>
       </c>
@@ -17853,7 +17852,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>307</v>
       </c>
@@ -17885,7 +17884,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1789</v>
       </c>
@@ -17917,7 +17916,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>606</v>
       </c>
@@ -17949,7 +17948,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>313</v>
       </c>
@@ -17981,7 +17980,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>314</v>
       </c>
@@ -18013,7 +18012,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2225</v>
       </c>
@@ -18045,7 +18044,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2162</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>319</v>
       </c>
@@ -18109,7 +18108,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>911</v>
       </c>
@@ -18141,7 +18140,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1332</v>
       </c>
@@ -18173,7 +18172,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>328</v>
       </c>
@@ -18205,7 +18204,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>330</v>
       </c>
@@ -18237,7 +18236,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>332</v>
       </c>
@@ -18269,7 +18268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>5775</v>
       </c>
@@ -18301,7 +18300,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5631</v>
       </c>
@@ -18333,7 +18332,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1785</v>
       </c>
@@ -18365,7 +18364,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4529</v>
       </c>
@@ -18397,7 +18396,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4518</v>
       </c>
@@ -18429,7 +18428,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>5595</v>
       </c>
@@ -18461,7 +18460,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>341</v>
       </c>
@@ -18493,7 +18492,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>343</v>
       </c>
@@ -18525,7 +18524,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1974</v>
       </c>
@@ -18557,7 +18556,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>743</v>
       </c>
@@ -18589,7 +18588,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>464</v>
       </c>
@@ -18621,7 +18620,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1255</v>
       </c>
@@ -18685,7 +18684,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>349</v>
       </c>
@@ -18717,7 +18716,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1426</v>
       </c>
@@ -18749,7 +18748,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>993</v>
       </c>
@@ -18781,7 +18780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>350</v>
       </c>
@@ -18845,7 +18844,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1604</v>
       </c>
@@ -18877,7 +18876,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>353</v>
       </c>
@@ -18909,7 +18908,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2012</v>
       </c>
@@ -18941,7 +18940,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2081</v>
       </c>
@@ -18973,7 +18972,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>361</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>122</v>
       </c>
@@ -19037,7 +19036,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>362</v>
       </c>
@@ -19069,7 +19068,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>937</v>
       </c>
@@ -19133,7 +19132,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>3345</v>
       </c>
@@ -19165,7 +19164,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4563</v>
       </c>
@@ -19197,7 +19196,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4510</v>
       </c>
@@ -19229,7 +19228,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1409</v>
       </c>
@@ -19261,7 +19260,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1961</v>
       </c>
@@ -19293,7 +19292,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>5675</v>
       </c>
@@ -19325,7 +19324,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>5796</v>
       </c>
@@ -19357,7 +19356,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>366</v>
       </c>
@@ -19389,7 +19388,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1323</v>
       </c>
@@ -19421,7 +19420,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>373</v>
       </c>
@@ -19453,7 +19452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>986</v>
       </c>
@@ -19485,7 +19484,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2164</v>
       </c>
@@ -19517,7 +19516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>378</v>
       </c>
@@ -19549,7 +19548,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>380</v>
       </c>
@@ -19581,7 +19580,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>381</v>
       </c>
@@ -19613,7 +19612,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>812</v>
       </c>
@@ -19645,7 +19644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>4553</v>
       </c>
@@ -19677,7 +19676,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3451</v>
       </c>
@@ -19709,7 +19708,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>5667</v>
       </c>
@@ -19741,7 +19740,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3371</v>
       </c>
@@ -19773,7 +19772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>5656</v>
       </c>
@@ -19805,7 +19804,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>5601</v>
       </c>
@@ -19837,7 +19836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>5653</v>
       </c>
@@ -19869,7 +19868,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>5870</v>
       </c>
@@ -19901,7 +19900,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>900</v>
       </c>
@@ -19933,7 +19932,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1970</v>
       </c>
@@ -19965,7 +19964,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>391</v>
       </c>
@@ -19997,7 +19996,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>392</v>
       </c>
@@ -20029,7 +20028,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1026</v>
       </c>
@@ -20061,7 +20060,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>494</v>
       </c>
@@ -20093,7 +20092,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1242</v>
       </c>
@@ -20125,7 +20124,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>397</v>
       </c>
@@ -20157,7 +20156,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1963</v>
       </c>
@@ -20189,7 +20188,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>597</v>
       </c>
@@ -20221,7 +20220,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3445</v>
       </c>
@@ -20253,7 +20252,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>5857</v>
       </c>
@@ -20285,7 +20284,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4523</v>
       </c>
@@ -20317,7 +20316,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>5637</v>
       </c>
@@ -20349,7 +20348,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3471</v>
       </c>
@@ -20381,7 +20380,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>4491</v>
       </c>
@@ -20413,7 +20412,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>398</v>
       </c>
@@ -20445,7 +20444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>720</v>
       </c>
@@ -20477,7 +20476,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>419</v>
       </c>
@@ -20509,7 +20508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2218</v>
       </c>
@@ -20541,7 +20540,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1852</v>
       </c>
@@ -20573,7 +20572,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1573</v>
       </c>
@@ -20605,7 +20604,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>402</v>
       </c>
@@ -20637,7 +20636,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>5774</v>
       </c>
@@ -20669,7 +20668,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>407</v>
       </c>
@@ -20701,7 +20700,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>408</v>
       </c>
@@ -20733,7 +20732,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>409</v>
       </c>
@@ -20765,7 +20764,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1022</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>413</v>
       </c>
@@ -20829,7 +20828,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1302</v>
       </c>
@@ -20861,7 +20860,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1628</v>
       </c>
@@ -20893,7 +20892,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>4556</v>
       </c>
@@ -20925,7 +20924,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3463</v>
       </c>
@@ -20957,7 +20956,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4493</v>
       </c>
@@ -20989,7 +20988,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4517</v>
       </c>
@@ -21021,7 +21020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5858</v>
       </c>
@@ -21053,7 +21052,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4566</v>
       </c>
@@ -21085,7 +21084,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3385</v>
       </c>
@@ -21117,7 +21116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>4509</v>
       </c>
@@ -21149,7 +21148,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>4487</v>
       </c>
@@ -21181,7 +21180,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5646</v>
       </c>
@@ -21213,7 +21212,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>621</v>
       </c>
@@ -21245,7 +21244,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1458</v>
       </c>
@@ -21277,7 +21276,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1287</v>
       </c>
@@ -21309,7 +21308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2171</v>
       </c>
@@ -21341,7 +21340,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>813</v>
       </c>
@@ -21373,7 +21372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1126</v>
       </c>
@@ -21405,7 +21404,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>5853</v>
       </c>
@@ -21437,7 +21436,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>443</v>
       </c>
@@ -21469,7 +21468,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>445</v>
       </c>
@@ -21501,7 +21500,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>447</v>
       </c>
@@ -21533,7 +21532,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>454</v>
       </c>
@@ -21565,7 +21564,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1717</v>
       </c>
@@ -21597,7 +21596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>458</v>
       </c>
@@ -21629,7 +21628,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>460</v>
       </c>
@@ -21661,7 +21660,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>461</v>
       </c>
@@ -21693,7 +21692,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1337</v>
       </c>
@@ -21725,7 +21724,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1683</v>
       </c>
@@ -21757,7 +21756,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2246</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>459</v>
       </c>
@@ -21821,7 +21820,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>164</v>
       </c>
@@ -21853,7 +21852,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1399</v>
       </c>
@@ -21885,7 +21884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1455</v>
       </c>
@@ -21917,7 +21916,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1414</v>
       </c>
@@ -21981,7 +21980,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>4520</v>
       </c>
@@ -22013,7 +22012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>5752</v>
       </c>
@@ -22045,7 +22044,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4490</v>
       </c>
@@ -22077,7 +22076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>3454</v>
       </c>
@@ -22109,7 +22108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>5606</v>
       </c>
@@ -22141,7 +22140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4528</v>
       </c>
@@ -22173,7 +22172,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5856</v>
       </c>
@@ -22205,7 +22204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>5652</v>
       </c>
@@ -22237,7 +22236,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>5570</v>
       </c>
@@ -22269,7 +22268,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>5679</v>
       </c>
@@ -22301,7 +22300,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>4568</v>
       </c>
@@ -22333,7 +22332,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>367</v>
       </c>
@@ -22365,7 +22364,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>481</v>
       </c>
@@ -22397,7 +22396,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2052</v>
       </c>
@@ -22429,7 +22428,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1273</v>
       </c>
@@ -22461,7 +22460,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>482</v>
       </c>
@@ -22493,7 +22492,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>484</v>
       </c>
@@ -22525,7 +22524,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1266</v>
       </c>
@@ -22557,7 +22556,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>974</v>
       </c>
@@ -22589,7 +22588,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1584</v>
       </c>
@@ -22621,7 +22620,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2101</v>
       </c>
@@ -22653,7 +22652,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3405</v>
       </c>
@@ -22685,7 +22684,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>133</v>
       </c>
@@ -22717,7 +22716,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1093</v>
       </c>
@@ -22749,7 +22748,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>488</v>
       </c>
@@ -22781,7 +22780,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>491</v>
       </c>
@@ -22813,7 +22812,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1800</v>
       </c>
@@ -22845,7 +22844,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2203</v>
       </c>
@@ -22877,7 +22876,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2029</v>
       </c>
@@ -22909,7 +22908,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1834</v>
       </c>
@@ -22941,7 +22940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>497</v>
       </c>
@@ -22973,7 +22972,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2232</v>
       </c>
@@ -23005,7 +23004,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>500</v>
       </c>
@@ -23037,7 +23036,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2079</v>
       </c>
@@ -23069,7 +23068,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1284</v>
       </c>
@@ -23101,7 +23100,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>213</v>
       </c>
@@ -23133,7 +23132,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1992</v>
       </c>
@@ -23165,7 +23164,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2180</v>
       </c>
@@ -23197,7 +23196,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1370</v>
       </c>
@@ -23229,7 +23228,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>503</v>
       </c>
@@ -23261,7 +23260,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>631</v>
       </c>
@@ -23293,7 +23292,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2048</v>
       </c>
@@ -23325,7 +23324,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>505</v>
       </c>
@@ -23357,7 +23356,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>508</v>
       </c>
@@ -23389,7 +23388,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>3312</v>
       </c>
@@ -23421,7 +23420,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>509</v>
       </c>
@@ -23453,7 +23452,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2128</v>
       </c>
@@ -23485,7 +23484,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>514</v>
       </c>
@@ -23517,7 +23516,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>516</v>
       </c>
@@ -23549,7 +23548,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>520</v>
       </c>
@@ -23581,7 +23580,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>3281</v>
       </c>
@@ -23613,7 +23612,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1562</v>
       </c>
@@ -23645,7 +23644,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>524</v>
       </c>
@@ -23677,7 +23676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>526</v>
       </c>
@@ -23709,7 +23708,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1343</v>
       </c>
@@ -23773,7 +23772,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1994</v>
       </c>
@@ -23805,7 +23804,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1540</v>
       </c>
@@ -23837,7 +23836,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2250</v>
       </c>
@@ -23869,7 +23868,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>4565</v>
       </c>
@@ -23901,7 +23900,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>5852</v>
       </c>
@@ -23933,7 +23932,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>3477</v>
       </c>
@@ -23965,7 +23964,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>4522</v>
       </c>
@@ -23997,7 +23996,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>4557</v>
       </c>
@@ -24029,7 +24028,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>5662</v>
       </c>
@@ -24061,7 +24060,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>3452</v>
       </c>
@@ -24093,7 +24092,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>3476</v>
       </c>
@@ -24125,7 +24124,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>5633</v>
       </c>
@@ -24157,7 +24156,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>5624</v>
       </c>
@@ -24189,7 +24188,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>5621</v>
       </c>
@@ -24221,7 +24220,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>5659</v>
       </c>
@@ -24253,7 +24252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>3398</v>
       </c>
@@ -24285,7 +24284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>5611</v>
       </c>
@@ -24317,7 +24316,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>3461</v>
       </c>
@@ -24349,7 +24348,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>219</v>
       </c>
@@ -24381,7 +24380,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>929</v>
       </c>
@@ -24413,7 +24412,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1775</v>
       </c>
@@ -24445,7 +24444,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>542</v>
       </c>
@@ -24509,7 +24508,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>868</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1632</v>
       </c>
@@ -24573,7 +24572,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>3374</v>
       </c>
@@ -24605,7 +24604,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1237</v>
       </c>
@@ -24637,7 +24636,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>553</v>
       </c>
@@ -24669,7 +24668,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>557</v>
       </c>
@@ -24701,7 +24700,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1450</v>
       </c>
@@ -24733,7 +24732,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2015</v>
       </c>
@@ -24765,7 +24764,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>561</v>
       </c>
@@ -24797,7 +24796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>562</v>
       </c>
@@ -24829,7 +24828,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>565</v>
       </c>
@@ -24861,7 +24860,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1854</v>
       </c>
@@ -24893,7 +24892,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1747</v>
       </c>
@@ -24925,7 +24924,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1270</v>
       </c>
@@ -24957,7 +24956,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2188</v>
       </c>
@@ -24989,7 +24988,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>1693</v>
       </c>
@@ -25021,7 +25020,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>1728</v>
       </c>
@@ -25053,7 +25052,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>5643</v>
       </c>
@@ -25085,7 +25084,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>3478</v>
       </c>
@@ -25117,7 +25116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>3437</v>
       </c>
@@ -25149,7 +25148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>3485</v>
       </c>
@@ -25181,7 +25180,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>5777</v>
       </c>
@@ -25213,7 +25212,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>3475</v>
       </c>
@@ -25245,7 +25244,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>5666</v>
       </c>
@@ -25277,7 +25276,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>5632</v>
       </c>
@@ -25309,7 +25308,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>5860</v>
       </c>
@@ -25341,7 +25340,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>5617</v>
       </c>
@@ -25373,7 +25372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>5640</v>
       </c>
@@ -25405,7 +25404,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>5681</v>
       </c>
@@ -25437,7 +25436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>5678</v>
       </c>
@@ -25469,7 +25468,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>5861</v>
       </c>
@@ -25501,7 +25500,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>5604</v>
       </c>
@@ -25533,7 +25532,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>5641</v>
       </c>
@@ -25565,7 +25564,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>5677</v>
       </c>
@@ -25597,7 +25596,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>5609</v>
       </c>
@@ -25629,7 +25628,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3294</v>
       </c>
@@ -25661,7 +25660,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>589</v>
       </c>
@@ -25693,7 +25692,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>587</v>
       </c>
@@ -25725,7 +25724,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>588</v>
       </c>
@@ -25757,7 +25756,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>3253</v>
       </c>
@@ -25789,7 +25788,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>592</v>
       </c>
@@ -25821,7 +25820,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1077</v>
       </c>
@@ -25853,7 +25852,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>595</v>
       </c>
@@ -25885,7 +25884,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>598</v>
       </c>
@@ -25917,7 +25916,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>607</v>
       </c>
@@ -25949,7 +25948,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1805</v>
       </c>
@@ -25981,7 +25980,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>1045</v>
       </c>
@@ -26013,7 +26012,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>601</v>
       </c>
@@ -26045,7 +26044,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>1587</v>
       </c>
@@ -26077,7 +26076,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>791</v>
       </c>
@@ -26109,7 +26108,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>1416</v>
       </c>
@@ -26141,7 +26140,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>626</v>
       </c>
@@ -26173,7 +26172,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>628</v>
       </c>
@@ -26205,7 +26204,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>625</v>
       </c>
@@ -26237,7 +26236,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>627</v>
       </c>
@@ -26269,7 +26268,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>630</v>
       </c>
@@ -26301,7 +26300,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2210</v>
       </c>
@@ -26333,7 +26332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>5648</v>
       </c>
@@ -26365,7 +26364,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>5791</v>
       </c>
@@ -26397,7 +26396,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>5872</v>
       </c>
@@ -26429,7 +26428,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>4549</v>
       </c>
@@ -26461,7 +26460,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>3363</v>
       </c>
@@ -26493,7 +26492,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>640</v>
       </c>
@@ -26525,7 +26524,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>651</v>
       </c>
@@ -26557,7 +26556,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>646</v>
       </c>
@@ -26589,7 +26588,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>647</v>
       </c>
@@ -26621,7 +26620,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>652</v>
       </c>
@@ -26653,7 +26652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>253</v>
       </c>
@@ -26685,7 +26684,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>1136</v>
       </c>
@@ -26717,7 +26716,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>1253</v>
       </c>
@@ -26749,7 +26748,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>656</v>
       </c>
@@ -26781,7 +26780,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>660</v>
       </c>
@@ -26813,7 +26812,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>1466</v>
       </c>
@@ -26877,7 +26876,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>50</v>
       </c>
@@ -26909,7 +26908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2226</v>
       </c>
@@ -26941,7 +26940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>668</v>
       </c>
@@ -26973,7 +26972,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2167</v>
       </c>
@@ -27005,7 +27004,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>384</v>
       </c>
@@ -27037,7 +27036,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>674</v>
       </c>
@@ -27069,7 +27068,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>675</v>
       </c>
@@ -27101,7 +27100,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>1832</v>
       </c>
@@ -27133,7 +27132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2150</v>
       </c>
@@ -27165,7 +27164,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>823</v>
       </c>
@@ -27197,7 +27196,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2144</v>
       </c>
@@ -27229,7 +27228,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>682</v>
       </c>
@@ -27261,7 +27260,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2205</v>
       </c>
@@ -27293,7 +27292,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3280</v>
       </c>
@@ -27325,7 +27324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>684</v>
       </c>
@@ -27357,7 +27356,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>683</v>
       </c>
@@ -27389,7 +27388,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>685</v>
       </c>
@@ -27421,7 +27420,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>192</v>
       </c>
@@ -27453,7 +27452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>945</v>
       </c>
@@ -27485,7 +27484,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>695</v>
       </c>
@@ -27517,7 +27516,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2237</v>
       </c>
@@ -27549,7 +27548,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2241</v>
       </c>
@@ -27581,7 +27580,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>697</v>
       </c>
@@ -27613,7 +27612,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>1050</v>
       </c>
@@ -27645,7 +27644,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>699</v>
       </c>
@@ -27677,7 +27676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2244</v>
       </c>
@@ -27709,7 +27708,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5638</v>
       </c>
@@ -27741,7 +27740,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>5737</v>
       </c>
@@ -27773,7 +27772,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>5605</v>
       </c>
@@ -27805,7 +27804,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>4530</v>
       </c>
@@ -27869,7 +27868,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>3319</v>
       </c>
@@ -27901,7 +27900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>4552</v>
       </c>
@@ -27933,7 +27932,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>1438</v>
       </c>
@@ -27965,7 +27964,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2018</v>
       </c>
@@ -27997,7 +27996,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>5625</v>
       </c>
@@ -28061,7 +28060,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>1509</v>
       </c>
@@ -28093,7 +28092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>4543</v>
       </c>
@@ -28125,7 +28124,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>4546</v>
       </c>
@@ -28157,7 +28156,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>5801</v>
       </c>
@@ -28189,7 +28188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>704</v>
       </c>
@@ -28221,7 +28220,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>982</v>
       </c>
@@ -28253,7 +28252,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>705</v>
       </c>
@@ -28285,7 +28284,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>707</v>
       </c>
@@ -28317,7 +28316,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>1507</v>
       </c>
@@ -28349,7 +28348,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>706</v>
       </c>
@@ -28381,7 +28380,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>1145</v>
       </c>
@@ -28445,7 +28444,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>1308</v>
       </c>
@@ -28477,7 +28476,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>3299</v>
       </c>
@@ -28509,7 +28508,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>1476</v>
       </c>
@@ -28541,7 +28540,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>569</v>
       </c>
@@ -28573,7 +28572,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>575</v>
       </c>
@@ -28605,7 +28604,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>635</v>
       </c>
@@ -28637,7 +28636,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>5610</v>
       </c>
@@ -28669,7 +28668,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>711</v>
       </c>
@@ -28701,7 +28700,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>1502</v>
       </c>
@@ -28733,7 +28732,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>2209</v>
       </c>
@@ -28765,7 +28764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>803</v>
       </c>
@@ -28797,7 +28796,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>1222</v>
       </c>
@@ -28829,7 +28828,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>715</v>
       </c>
@@ -28861,7 +28860,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>2093</v>
       </c>
@@ -28893,7 +28892,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>716</v>
       </c>
@@ -28925,7 +28924,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>722</v>
       </c>
@@ -28957,7 +28956,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>351</v>
       </c>
@@ -28989,7 +28988,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>732</v>
       </c>
@@ -29021,7 +29020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>734</v>
       </c>
@@ -29053,7 +29052,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>5623</v>
       </c>
@@ -29085,7 +29084,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>4538</v>
       </c>
@@ -29117,7 +29116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>4501</v>
       </c>
@@ -29149,7 +29148,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>5676</v>
       </c>
@@ -29181,7 +29180,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>4570</v>
       </c>
@@ -29213,7 +29212,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>5846</v>
       </c>
@@ -29245,7 +29244,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>5805</v>
       </c>
@@ -29277,7 +29276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>717</v>
       </c>
@@ -29309,7 +29308,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>5620</v>
       </c>
@@ -29341,7 +29340,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>4544</v>
       </c>
@@ -29373,7 +29372,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>5665</v>
       </c>
@@ -29405,7 +29404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>740</v>
       </c>
@@ -29437,7 +29436,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>742</v>
       </c>
@@ -29469,7 +29468,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>2212</v>
       </c>
@@ -29501,7 +29500,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>3397</v>
       </c>
@@ -29533,7 +29532,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>5795</v>
       </c>
@@ -29565,7 +29564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>749</v>
       </c>
@@ -29597,7 +29596,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>702</v>
       </c>
@@ -29629,7 +29628,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>768</v>
       </c>
@@ -29661,7 +29660,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>3300</v>
       </c>
@@ -29693,7 +29692,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>1003</v>
       </c>
@@ -29725,7 +29724,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>872</v>
       </c>
@@ -29757,7 +29756,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>752</v>
       </c>
@@ -29789,7 +29788,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1945</v>
       </c>
@@ -29821,7 +29820,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>758</v>
       </c>
@@ -29853,7 +29852,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>760</v>
       </c>
@@ -29885,7 +29884,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>2187</v>
       </c>
@@ -29917,7 +29916,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>1570</v>
       </c>
@@ -29949,7 +29948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>3330</v>
       </c>
@@ -29981,7 +29980,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>764</v>
       </c>
@@ -30013,7 +30012,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>869</v>
       </c>
@@ -30045,7 +30044,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>1926</v>
       </c>
@@ -30077,7 +30076,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>2154</v>
       </c>
@@ -30109,7 +30108,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>3287</v>
       </c>
@@ -30141,7 +30140,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>1375</v>
       </c>
@@ -30173,7 +30172,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>426</v>
       </c>
@@ -30205,7 +30204,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>2003</v>
       </c>
@@ -30237,7 +30236,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1360</v>
       </c>
@@ -30269,7 +30268,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>5682</v>
       </c>
@@ -30301,7 +30300,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>5607</v>
       </c>
@@ -30333,7 +30332,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>3352</v>
       </c>
@@ -30365,7 +30364,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>5828</v>
       </c>
@@ -30397,7 +30396,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>5575</v>
       </c>
@@ -30429,7 +30428,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>5619</v>
       </c>
@@ -30461,7 +30460,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>3482</v>
       </c>
@@ -30493,7 +30492,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>4558</v>
       </c>
@@ -30525,7 +30524,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>5661</v>
       </c>
@@ -30557,7 +30556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>429</v>
       </c>
@@ -30589,7 +30588,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>431</v>
       </c>
@@ -30621,7 +30620,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>4521</v>
       </c>
@@ -30653,7 +30652,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>2109</v>
       </c>
@@ -30685,7 +30684,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>2238</v>
       </c>
@@ -30717,7 +30716,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>774</v>
       </c>
@@ -30749,7 +30748,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>329</v>
       </c>
@@ -30781,7 +30780,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>779</v>
       </c>
@@ -30813,7 +30812,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>995</v>
       </c>
@@ -30845,7 +30844,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>532</v>
       </c>
@@ -30877,7 +30876,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>782</v>
       </c>
@@ -30909,7 +30908,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>2139</v>
       </c>
@@ -30941,7 +30940,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>2140</v>
       </c>
@@ -30973,7 +30972,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>1413</v>
       </c>
@@ -31005,7 +31004,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>807</v>
       </c>
@@ -31037,7 +31036,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>1586</v>
       </c>
@@ -31069,7 +31068,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>1244</v>
       </c>
@@ -31101,7 +31100,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>1307</v>
       </c>
@@ -31133,7 +31132,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>904</v>
       </c>
@@ -31165,7 +31164,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>794</v>
       </c>
@@ -31197,7 +31196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>3278</v>
       </c>
@@ -31229,7 +31228,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>2114</v>
       </c>
@@ -31261,7 +31260,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>800</v>
       </c>
@@ -31293,7 +31292,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>801</v>
       </c>
@@ -31325,7 +31324,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>975</v>
       </c>
@@ -31357,7 +31356,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>5644</v>
       </c>
@@ -31389,7 +31388,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>5821</v>
       </c>
@@ -31421,7 +31420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>5668</v>
       </c>
@@ -31453,7 +31452,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>5571</v>
       </c>
@@ -31485,7 +31484,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>4540</v>
       </c>
@@ -31517,7 +31516,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>2155</v>
       </c>
@@ -31549,7 +31548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>4550</v>
       </c>
@@ -31581,7 +31580,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>1227</v>
       </c>
@@ -31613,7 +31612,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>5658</v>
       </c>
@@ -31645,7 +31644,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>5855</v>
       </c>
@@ -31677,7 +31676,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>1519</v>
       </c>
@@ -31709,7 +31708,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>1301</v>
       </c>
@@ -31741,7 +31740,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>5569</v>
       </c>
@@ -31774,13 +31773,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J660">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Computer &amp; Information Technology"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J660"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>